--- a/regionseng/12/environmental protection/environmental protection.xlsx
+++ b/regionseng/12/environmental protection/environmental protection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17115" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Shida Kartli" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>"-" Magnitude nil.</t>
   </si>
   <si>
-    <t>Forest area* - 237 thousand hectares</t>
-  </si>
-  <si>
-    <t>Of which covered by forest* - 214 thousand hectares</t>
-  </si>
-  <si>
     <t>Volume of felled timber* (cubic metre)</t>
   </si>
   <si>
     <t>Illegal Logging* (cubic metre)</t>
+  </si>
+  <si>
+    <t>Forest area* - 284 thousand hectares</t>
+  </si>
+  <si>
+    <t>Of which covered by forest* - 274 thousand hectares</t>
   </si>
 </sst>
 </file>
@@ -256,29 +256,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -598,57 +598,65 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+    </row>
+    <row r="3" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -674,10 +682,16 @@
       <c r="I5" s="15">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J5" s="15">
+        <v>2021</v>
+      </c>
+      <c r="K5" s="15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="11">
         <v>85883</v>
@@ -703,10 +717,16 @@
       <c r="I6" s="11">
         <v>49948</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J6" s="11">
+        <v>44304</v>
+      </c>
+      <c r="K6" s="11">
+        <v>55357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="11">
         <v>188</v>
@@ -732,8 +752,14 @@
       <c r="I7" s="11">
         <v>1841</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="11">
+        <v>425.8</v>
+      </c>
+      <c r="K7" s="11">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -743,26 +769,32 @@
       <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>1</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -790,8 +822,14 @@
       <c r="I9" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J9" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -808,7 +846,7 @@
         <v>276.60000000000002</v>
       </c>
       <c r="F10" s="13">
-        <v>288.5</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="G10" s="13">
         <v>277.10000000000002</v>
@@ -819,8 +857,14 @@
       <c r="I10" s="13">
         <v>587.20000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J10" s="13">
+        <v>580.20000000000005</v>
+      </c>
+      <c r="K10" s="13">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -832,8 +876,10 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -850,7 +896,7 @@
         <v>268.89999999999998</v>
       </c>
       <c r="F12" s="13">
-        <v>281.39999999999998</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="G12" s="13">
         <v>270</v>
@@ -861,8 +907,14 @@
       <c r="I12" s="13">
         <v>580.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="13">
+        <v>577.6</v>
+      </c>
+      <c r="K12" s="13">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -879,94 +931,110 @@
         <v>7.7</v>
       </c>
       <c r="F13" s="14">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="G13" s="14">
         <v>7.1</v>
       </c>
       <c r="H13" s="14">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I13" s="14">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="J13" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="K13" s="14">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A16:K16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/regionseng/12/environmental protection/environmental protection.xlsx
+++ b/regionseng/12/environmental protection/environmental protection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Shida Kartli" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Forest seeding and planting (ha)</t>
   </si>
@@ -259,25 +259,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,64 +584,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60.7109375" style="2" customWidth="1"/>
     <col min="2" max="8" width="9.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="12" width="9.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-    </row>
-    <row r="3" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+    </row>
+    <row r="2" spans="1:12" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -655,8 +658,9 @@
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15">
         <v>2013</v>
@@ -688,8 +692,11 @@
       <c r="K5" s="15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -723,8 +730,11 @@
       <c r="K6" s="11">
         <v>55357</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="11">
+        <v>41745</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -758,8 +768,11 @@
       <c r="K7" s="11">
         <v>644</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,8 +806,11 @@
       <c r="K8" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
@@ -828,8 +844,11 @@
       <c r="K9" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -863,8 +882,11 @@
       <c r="K10" s="13">
         <v>102.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="13">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -878,8 +900,9 @@
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -913,8 +936,11 @@
       <c r="K12" s="13">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="13">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -948,53 +974,59 @@
       <c r="K13" s="14">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="L13" s="14">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>12</v>
       </c>
@@ -1008,8 +1040,9 @@
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
       <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
@@ -1023,18 +1056,19 @@
       <c r="I18" s="16"/>
       <c r="J18" s="16"/>
       <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
